--- a/desisionTree_buTYA.xlsx
+++ b/desisionTree_buTYA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="77">
   <si>
     <t>R1</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Rule</t>
   </si>
   <si>
-    <t>Gejala/Kode Pertanyaan</t>
-  </si>
-  <si>
     <t>Solusi</t>
   </si>
   <si>
@@ -230,6 +227,24 @@
   </si>
   <si>
     <t xml:space="preserve">C     </t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
   </si>
 </sst>
 </file>
@@ -266,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -287,19 +302,6 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -330,17 +332,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -350,57 +341,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="14"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -408,7 +359,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -715,70 +678,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>39</v>
@@ -789,48 +766,48 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>39</v>
@@ -841,25 +818,25 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>35</v>
@@ -867,22 +844,22 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>39</v>
@@ -893,25 +870,25 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>35</v>
@@ -919,22 +896,22 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>39</v>
@@ -945,48 +922,48 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>39</v>
@@ -997,48 +974,48 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>39</v>
@@ -1049,25 +1026,25 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>35</v>
@@ -1075,22 +1052,22 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>39</v>
@@ -1101,25 +1078,25 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>35</v>
@@ -1127,22 +1104,22 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>39</v>
@@ -1153,48 +1130,48 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>39</v>
@@ -1205,25 +1182,25 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>34</v>
@@ -1231,22 +1208,22 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>39</v>
@@ -1257,48 +1234,48 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>39</v>
@@ -1309,25 +1286,25 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>35</v>
@@ -1335,22 +1312,22 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>39</v>
@@ -1361,48 +1338,48 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>39</v>
@@ -1413,48 +1390,48 @@
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>39</v>
@@ -1465,25 +1442,25 @@
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>35</v>
@@ -1491,22 +1468,22 @@
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>39</v>
@@ -1517,25 +1494,25 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>35</v>
@@ -1543,22 +1520,22 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>39</v>
@@ -1569,25 +1546,25 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>35</v>
@@ -1595,22 +1572,22 @@
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>39</v>
@@ -1621,25 +1598,25 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>35</v>
@@ -1650,19 +1627,19 @@
         <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>39</v>
@@ -1676,22 +1653,22 @@
         <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>35</v>
@@ -1702,19 +1679,19 @@
         <v>43</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>39</v>
@@ -1728,76 +1705,76 @@
         <v>44</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H41" s="4" t="s">
+      <c r="B41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" s="13" t="s">
+      <c r="B42" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1805,20 +1782,20 @@
       <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>40</v>
+      <c r="B43" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>39</v>
@@ -1831,23 +1808,23 @@
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="14" t="s">
-        <v>40</v>
+      <c r="B44" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>35</v>
@@ -1857,20 +1834,20 @@
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>40</v>
+      <c r="B45" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>39</v>
@@ -1883,23 +1860,23 @@
       <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>40</v>
+      <c r="B46" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>35</v>
@@ -1909,20 +1886,20 @@
       <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>40</v>
+      <c r="B47" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>39</v>
@@ -1935,23 +1912,23 @@
       <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>40</v>
+      <c r="B48" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>35</v>
@@ -1961,20 +1938,20 @@
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>40</v>
+      <c r="B49" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>39</v>
@@ -1987,23 +1964,23 @@
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>40</v>
+      <c r="B50" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>35</v>
@@ -2013,20 +1990,20 @@
       <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>40</v>
+      <c r="B51" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>39</v>
@@ -2039,23 +2016,23 @@
       <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>40</v>
+      <c r="B52" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>35</v>
@@ -2065,20 +2042,20 @@
       <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>40</v>
+      <c r="B53" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>39</v>
@@ -2091,23 +2068,23 @@
       <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>40</v>
+      <c r="B54" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>35</v>
@@ -2117,20 +2094,20 @@
       <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>40</v>
+      <c r="B55" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>39</v>
@@ -2143,23 +2120,23 @@
       <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="14" t="s">
-        <v>40</v>
+      <c r="B56" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>35</v>
@@ -2169,20 +2146,20 @@
       <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="14" t="s">
-        <v>40</v>
+      <c r="B57" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>39</v>
@@ -2195,23 +2172,23 @@
       <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>40</v>
+      <c r="B58" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>35</v>
@@ -2221,20 +2198,20 @@
       <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="14" t="s">
-        <v>40</v>
+      <c r="B59" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>39</v>
@@ -2247,23 +2224,23 @@
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="14" t="s">
-        <v>40</v>
+      <c r="B60" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>35</v>
@@ -2273,20 +2250,20 @@
       <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="14" t="s">
-        <v>40</v>
+      <c r="B61" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>39</v>
@@ -2299,23 +2276,23 @@
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>40</v>
+      <c r="B62" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>35</v>
@@ -2325,20 +2302,20 @@
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>40</v>
+      <c r="B63" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>39</v>
@@ -2348,89 +2325,58 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H64" s="4" t="s">
+      <c r="B64" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="B65" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>71</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:H2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/desisionTree_buTYA.xlsx
+++ b/desisionTree_buTYA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>R1</t>
   </si>
@@ -118,12 +118,6 @@
     <t>R34</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Rule</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
   </si>
   <si>
     <t>R64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C     </t>
   </si>
   <si>
     <t>G1</t>
@@ -682,28 +673,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -728,8 +719,8 @@
       <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>34</v>
+      <c r="H2" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -754,8 +745,8 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>34</v>
+      <c r="H3" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -780,8 +771,8 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>35</v>
+      <c r="H4" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -806,8 +797,8 @@
       <c r="G5" s="3">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>35</v>
+      <c r="H5" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -832,8 +823,8 @@
       <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>35</v>
+      <c r="H6" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -858,8 +849,8 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>35</v>
+      <c r="H7" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -884,8 +875,8 @@
       <c r="G8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>35</v>
+      <c r="H8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -910,8 +901,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>35</v>
+      <c r="H9" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -936,8 +927,8 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>34</v>
+      <c r="H10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -962,8 +953,8 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>34</v>
+      <c r="H11" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -988,8 +979,8 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>35</v>
+      <c r="H12" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1014,8 +1005,8 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>35</v>
+      <c r="H13" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1040,8 +1031,8 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>35</v>
+      <c r="H14" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1066,8 +1057,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>35</v>
+      <c r="H15" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1092,8 +1083,8 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>35</v>
+      <c r="H16" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1118,8 +1109,8 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>35</v>
+      <c r="H17" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1144,8 +1135,8 @@
       <c r="G18" s="3">
         <v>1</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>34</v>
+      <c r="H18" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1170,8 +1161,8 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>34</v>
+      <c r="H19" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1196,8 +1187,8 @@
       <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>34</v>
+      <c r="H20" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1222,8 +1213,8 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>34</v>
+      <c r="H21" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1248,8 +1239,8 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>35</v>
+      <c r="H22" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1274,8 +1265,8 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>35</v>
+      <c r="H23" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1300,8 +1291,8 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>35</v>
+      <c r="H24" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1326,8 +1317,8 @@
       <c r="G25" s="3">
         <v>0</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>35</v>
+      <c r="H25" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1352,8 +1343,8 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>34</v>
+      <c r="H26" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1378,8 +1369,8 @@
       <c r="G27" s="3">
         <v>0</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>34</v>
+      <c r="H27" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1404,8 +1395,8 @@
       <c r="G28" s="3">
         <v>1</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>35</v>
+      <c r="H28" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1430,8 +1421,8 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>35</v>
+      <c r="H29" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1456,8 +1447,8 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>35</v>
+      <c r="H30" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1482,8 +1473,8 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>35</v>
+      <c r="H31" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1508,8 +1499,8 @@
       <c r="G32" s="3">
         <v>1</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>35</v>
+      <c r="H32" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1534,8 +1525,8 @@
       <c r="G33" s="3">
         <v>0</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>35</v>
+      <c r="H33" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1560,8 +1551,8 @@
       <c r="G34" s="3">
         <v>1</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>35</v>
+      <c r="H34" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1586,13 +1577,13 @@
       <c r="G35" s="3">
         <v>0</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>35</v>
+      <c r="H35" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -1612,13 +1603,13 @@
       <c r="G36" s="3">
         <v>1</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>35</v>
+      <c r="H36" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -1638,13 +1629,13 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>35</v>
+      <c r="H37" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -1664,13 +1655,13 @@
       <c r="G38" s="3">
         <v>1</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>35</v>
+      <c r="H38" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -1690,13 +1681,13 @@
       <c r="G39" s="3">
         <v>0</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>35</v>
+      <c r="H39" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -1716,13 +1707,13 @@
       <c r="G40" s="3">
         <v>1</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>35</v>
+      <c r="H40" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="6">
         <v>0</v>
@@ -1742,13 +1733,13 @@
       <c r="G41" s="7">
         <v>0</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>35</v>
+      <c r="H41" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42" s="9">
         <v>0</v>
@@ -1768,13 +1759,13 @@
       <c r="G42" s="3">
         <v>1</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>35</v>
+      <c r="H42" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" s="9">
         <v>0</v>
@@ -1794,13 +1785,13 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>35</v>
+      <c r="H43" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44" s="9">
         <v>0</v>
@@ -1820,13 +1811,13 @@
       <c r="G44" s="3">
         <v>1</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>35</v>
+      <c r="H44" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="9">
         <v>0</v>
@@ -1846,13 +1837,13 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>35</v>
+      <c r="H45" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B46" s="9">
         <v>0</v>
@@ -1872,13 +1863,13 @@
       <c r="G46" s="3">
         <v>1</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>35</v>
+      <c r="H46" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B47" s="9">
         <v>0</v>
@@ -1898,13 +1889,13 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="4" t="s">
-        <v>35</v>
+      <c r="H47" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="9">
         <v>0</v>
@@ -1924,13 +1915,13 @@
       <c r="G48" s="3">
         <v>1</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>35</v>
+      <c r="H48" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="9">
         <v>0</v>
@@ -1950,13 +1941,13 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>35</v>
+      <c r="H49" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="9">
         <v>0</v>
@@ -1976,13 +1967,13 @@
       <c r="G50" s="3">
         <v>1</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>35</v>
+      <c r="H50" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="9">
         <v>0</v>
@@ -2002,13 +1993,13 @@
       <c r="G51" s="3">
         <v>0</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>35</v>
+      <c r="H51" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="9">
         <v>0</v>
@@ -2028,13 +2019,13 @@
       <c r="G52" s="3">
         <v>1</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>35</v>
+      <c r="H52" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="9">
         <v>0</v>
@@ -2054,13 +2045,13 @@
       <c r="G53" s="3">
         <v>0</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>35</v>
+      <c r="H53" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="9">
         <v>0</v>
@@ -2080,13 +2071,13 @@
       <c r="G54" s="3">
         <v>1</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>35</v>
+      <c r="H54" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" s="9">
         <v>0</v>
@@ -2106,13 +2097,13 @@
       <c r="G55" s="3">
         <v>0</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>35</v>
+      <c r="H55" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56" s="9">
         <v>0</v>
@@ -2132,13 +2123,13 @@
       <c r="G56" s="3">
         <v>1</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>35</v>
+      <c r="H56" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" s="9">
         <v>0</v>
@@ -2158,13 +2149,13 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>35</v>
+      <c r="H57" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58" s="9">
         <v>0</v>
@@ -2184,13 +2175,13 @@
       <c r="G58" s="3">
         <v>1</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>35</v>
+      <c r="H58" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" s="9">
         <v>0</v>
@@ -2210,13 +2201,13 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>35</v>
+      <c r="H59" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="9">
         <v>0</v>
@@ -2236,13 +2227,13 @@
       <c r="G60" s="3">
         <v>1</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>35</v>
+      <c r="H60" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B61" s="9">
         <v>0</v>
@@ -2262,13 +2253,13 @@
       <c r="G61" s="3">
         <v>0</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>35</v>
+      <c r="H61" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" s="9">
         <v>0</v>
@@ -2288,13 +2279,13 @@
       <c r="G62" s="3">
         <v>1</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>35</v>
+      <c r="H62" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63" s="9">
         <v>0</v>
@@ -2314,13 +2305,13 @@
       <c r="G63" s="3">
         <v>0</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>35</v>
+      <c r="H63" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
@@ -2340,13 +2331,13 @@
       <c r="G64" s="7">
         <v>1</v>
       </c>
-      <c r="H64" s="8" t="s">
-        <v>35</v>
+      <c r="H64" s="8">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" s="9">
         <v>0</v>
@@ -2366,8 +2357,8 @@
       <c r="G65" s="3">
         <v>0</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>68</v>
+      <c r="H65" s="4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
